--- a/biology/Médecine/Ranolazine/Ranolazine.xlsx
+++ b/biology/Médecine/Ranolazine/Ranolazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ranolazine est une molécule à noyau pipérazine utilisée chez l'humain dans le traitement de l'angine de poitrine. Elle exerce son action au niveau des canaux sodiques.
@@ -512,10 +524,12 @@
           <t>Développement et commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ranolazine a été initialement développée par Syntex, intégré en 1994 au groupe Roche. Les droits d'exploitation de cette substance ont alors été transférés à CV Therapeutics, à son tour acquis par Gilead. Pour l'Europe, l'exploitation a été licenciée à Menarini.
-Ce médicament a obtenu une autorisation de mise sur le marché en 2006 aux États-Unis, puis en 2008 dans l'Union Européenne, sous le nom commercial Latixa puis Ranexa[2]. Il est utilisé dans différents pays (États-Unis, Allemagne, Japon...), mais n'a jamais été commercialisé en France en 2017.
+Ce médicament a obtenu une autorisation de mise sur le marché en 2006 aux États-Unis, puis en 2008 dans l'Union Européenne, sous le nom commercial Latixa puis Ranexa. Il est utilisé dans différents pays (États-Unis, Allemagne, Japon...), mais n'a jamais été commercialisé en France en 2017.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ranolazine est synthétisée en plusieurs étapes à partir de 2,6-diméthylaniline, de chlorure de chloroacétyle et d'éther de glycidyl guaïacol[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ranolazine est synthétisée en plusieurs étapes à partir de 2,6-diméthylaniline, de chlorure de chloroacétyle et d'éther de glycidyl guaïacol.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle inhibe le courant sodique  et calcique tardif transmembranaire. Par ce biais, elle prolonge la durée du potentiel d'action de certaines cellules cardiaques et prolonge l'intervalle QT sur l'électrocardiogramme[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle inhibe le courant sodique  et calcique tardif transmembranaire. Par ce biais, elle prolonge la durée du potentiel d'action de certaines cellules cardiaques et prolonge l'intervalle QT sur l'électrocardiogramme.
 </t>
         </is>
       </c>
@@ -606,14 +624,51 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elle accroît la tolérance à l'effort des patients angoreux sans jouer sur la fréquence cardiaque ou la tension artérielle, que ce soit employée seule[4] ou en association avec d'autres anti-angineux[5]. L'efficacité sur l'angor reste cependant discutée[6].
-Elle permet d'aider à une équilibration d'un diabète[7].
-Aucun effet sur une réduction de la mortalité[4], sur les réhospitalisations ou la nécessité d'une nouvelle revascularisation[8] ou sur la qualité de vie[6] n'a été démontré.
-Elle figure sur la liste des "médicaments à écarter" publiée chaque année par la revue médicale Prescrire[9].
-Nom commercial
-en Suisse vendu sous le nom de Ranexa[10]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle accroît la tolérance à l'effort des patients angoreux sans jouer sur la fréquence cardiaque ou la tension artérielle, que ce soit employée seule ou en association avec d'autres anti-angineux. L'efficacité sur l'angor reste cependant discutée.
+Elle permet d'aider à une équilibration d'un diabète.
+Aucun effet sur une réduction de la mortalité, sur les réhospitalisations ou la nécessité d'une nouvelle revascularisation ou sur la qualité de vie n'a été démontré.
+Elle figure sur la liste des "médicaments à écarter" publiée chaque année par la revue médicale Prescrire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ranolazine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ranolazine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Efficacité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nom commercial</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>en Suisse vendu sous le nom de Ranexa</t>
         </is>
       </c>
     </row>
